--- a/data/trans_dic/P19D_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19D_R2-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.867102366299954</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.9380360076704252</v>
+        <v>0.9380360076704249</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.9490497636996493</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9108155540844817</v>
+        <v>0.9093355988599776</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7970651221336126</v>
+        <v>0.7977493345052882</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8160540072722712</v>
+        <v>0.8216746335124592</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.8977938847271361</v>
+        <v>0.9024727093707647</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.9119186410293141</v>
+        <v>0.909556733841585</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.8053507075246542</v>
+        <v>0.8052283463656831</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8198010940255677</v>
+        <v>0.8226378769760939</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.9557180220839392</v>
+        <v>0.9537185029763064</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.9249095928858052</v>
+        <v>0.9235869302137814</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.8161149723002846</v>
+        <v>0.8169902467427148</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.8348122596398361</v>
+        <v>0.8324460792193942</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.9360953304533317</v>
+        <v>0.9362303455560491</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9772339998159468</v>
+        <v>0.976719057112745</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8892760136346178</v>
+        <v>0.8869066163822091</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9069190601275808</v>
+        <v>0.9104365185109928</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9608789768208279</v>
+        <v>0.9625142445864748</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9760224103473409</v>
+        <v>0.974250962450297</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9014647117686128</v>
+        <v>0.9015029545100239</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9072073850334134</v>
+        <v>0.9080567049361788</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9823199246819866</v>
+        <v>0.9820804423335856</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9716562654532709</v>
+        <v>0.9681078137631107</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.8837648086729331</v>
+        <v>0.8853143519376628</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.896376966411917</v>
+        <v>0.8951324975818287</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.9692113024070962</v>
+        <v>0.9685686203458908</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.9520207579855585</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.9519206922705816</v>
+        <v>0.9519206922705817</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.8980908026632992</v>
@@ -833,7 +833,7 @@
         <v>0.9493027884449297</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.9394313344319425</v>
+        <v>0.9394313344319427</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.853233247595916</v>
+        <v>0.8547753906220322</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7691324300962772</v>
+        <v>0.7668711706369692</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.9133666240755317</v>
+        <v>0.9127878745015438</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8824353675858611</v>
+        <v>0.8895609179813635</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8730165231603642</v>
+        <v>0.8761753701256001</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.8422378582631499</v>
+        <v>0.8419274471587721</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.9267005970934912</v>
+        <v>0.9263158891194448</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.9310222825611774</v>
+        <v>0.9337708302416861</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.8747526372484431</v>
+        <v>0.8759875867178263</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.8168876478778004</v>
+        <v>0.8180636217267444</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.9298771683903709</v>
+        <v>0.9308062762680001</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.9185186457802945</v>
+        <v>0.9147390179556736</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9180839652365677</v>
+        <v>0.9177072872270049</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8501375783946133</v>
+        <v>0.8507226512811249</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9660986726840719</v>
+        <v>0.9658559361180428</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.953454361783477</v>
+        <v>0.9551501422879214</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9291507225356089</v>
+        <v>0.9299843949795501</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.908394159698595</v>
+        <v>0.9068599924899682</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9709832693809513</v>
+        <v>0.9708002193007064</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.9654360170561109</v>
+        <v>0.9673328852839055</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.9165535239186756</v>
+        <v>0.917279289691319</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.8683287531116051</v>
+        <v>0.8684515264135215</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.9639264259785619</v>
+        <v>0.9638382195244962</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.9566680826131921</v>
+        <v>0.9543794018830195</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.9200757590306937</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.9445866339458784</v>
+        <v>0.9445866339458785</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.9415375816658937</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.895575736892416</v>
+        <v>0.8927272552039048</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7975265298962393</v>
+        <v>0.8012451537158339</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.884872667131285</v>
+        <v>0.8843360841662222</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.9178829116257191</v>
+        <v>0.9153272172045466</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.908938871413897</v>
+        <v>0.9099044991556268</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.8113108139910893</v>
+        <v>0.8121210538936052</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8836608195115462</v>
+        <v>0.880104638424705</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.9296045766399329</v>
+        <v>0.928941165067443</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.9132363418750801</v>
+        <v>0.9138224231090449</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.8207450678453058</v>
+        <v>0.8193599876161003</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.8933154635685258</v>
+        <v>0.8921297531257861</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.9333772640958055</v>
+        <v>0.9323782079680391</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9616909902302275</v>
+        <v>0.9611072454131768</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8830827733708424</v>
+        <v>0.8827157869912482</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9472943068072524</v>
+        <v>0.9449868085428037</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9637452358596585</v>
+        <v>0.9629528499201987</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9639560030989796</v>
+        <v>0.965403381583515</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8906671862392769</v>
+        <v>0.8905482214971518</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9422610810262844</v>
+        <v>0.9419409539850244</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.968356733971961</v>
+        <v>0.9693026739575813</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9553368763479714</v>
+        <v>0.9557716290104608</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.8780382944682443</v>
+        <v>0.88007720986365</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.9375321603997563</v>
+        <v>0.9371930844973315</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.9635822748362368</v>
+        <v>0.9629452102416943</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.9151479336795779</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.9747852834387445</v>
+        <v>0.9747852834387443</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.9382295534959876</v>
@@ -1105,7 +1105,7 @@
         <v>0.9015369954959239</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.9697962950718707</v>
+        <v>0.9697962950718708</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8903779384002105</v>
+        <v>0.8948365517857833</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8352582642638502</v>
+        <v>0.8368699993070555</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8497712620268978</v>
+        <v>0.8456963637034995</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9240024178656748</v>
+        <v>0.9206766278255817</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9146475059623731</v>
+        <v>0.9108757056001202</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.8745112658207587</v>
+        <v>0.8786688473739659</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.8775596213430629</v>
+        <v>0.8787565836619043</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.9595034584596515</v>
+        <v>0.9614033153552476</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.9155584554083802</v>
+        <v>0.9143621224593504</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.8679093909795038</v>
+        <v>0.8683510060403323</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.8732355750266999</v>
+        <v>0.8765500800587915</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.9521076571598739</v>
+        <v>0.9513290227177733</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9575376678495319</v>
+        <v>0.9598318397842061</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9145685232552744</v>
+        <v>0.9173704595474136</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9192710077106863</v>
+        <v>0.9187892134563264</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9827716761367934</v>
+        <v>0.9838475312750656</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9698169159702252</v>
+        <v>0.967196385916265</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.9376663167962621</v>
+        <v>0.9376208082540326</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.942248175967063</v>
+        <v>0.9408301273146931</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.9844802266250857</v>
+        <v>0.985638682715269</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.9583228016100139</v>
+        <v>0.9557259216596399</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.9195001596182377</v>
+        <v>0.9193955919674094</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.922447271064941</v>
+        <v>0.9236301410151611</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.9801244809270672</v>
+        <v>0.9804670337831567</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.8724000106421741</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.936805776127788</v>
+        <v>0.9368057761277879</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.9274555024892031</v>
@@ -1241,7 +1241,7 @@
         <v>0.8912068160517553</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.9289462087124492</v>
+        <v>0.9289462087124489</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8879683370568549</v>
+        <v>0.8860732106347551</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8032273227640786</v>
+        <v>0.8063483656881134</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8462414023238835</v>
+        <v>0.8604137355407107</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8843491024108954</v>
+        <v>0.8820764662726827</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.8674144069843841</v>
+        <v>0.8684407845093601</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.8220861182148164</v>
+        <v>0.82724765276608</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8118892136209236</v>
+        <v>0.8073640782628058</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.9115225718146932</v>
+        <v>0.9121576373628667</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.8950782262623954</v>
+        <v>0.8952577756457337</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.8260555326712871</v>
+        <v>0.8279145140621207</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.8483129038991887</v>
+        <v>0.8518208493399806</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.9066037170719027</v>
+        <v>0.9076577505073921</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9641357331693968</v>
+        <v>0.9642742306151248</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9073603263647106</v>
+        <v>0.9054658019260224</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9487565791359974</v>
+        <v>0.959298343149071</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.948273437395634</v>
+        <v>0.9462682272000491</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9566175542907488</v>
+        <v>0.9605300282067121</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.9169358296579424</v>
+        <v>0.9176543370325798</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9179208203025435</v>
+        <v>0.9196043474681617</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9555260465467624</v>
+        <v>0.9552427022233474</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.9539078872513825</v>
+        <v>0.9522053516700486</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.9000815070847052</v>
+        <v>0.8981244205787235</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.9267924464104655</v>
+        <v>0.9243266534782438</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.9460519194699701</v>
+        <v>0.9455898348692031</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.9007479226599858</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.9420819267498565</v>
+        <v>0.9420819267498566</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.9563335102634001</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.8885646694298199</v>
+        <v>0.8958494509652294</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.7952107850789338</v>
+        <v>0.7990716534876123</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.8526463728087977</v>
+        <v>0.8609962819529809</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9152380577035978</v>
+        <v>0.9141496527866024</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9187156801298533</v>
+        <v>0.9226275625267578</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.8142282155478681</v>
+        <v>0.8123865366502966</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.8840392626443772</v>
+        <v>0.8837047075597302</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.9089052239437663</v>
+        <v>0.907904025642372</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.9179493687712243</v>
+        <v>0.9231508416707511</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.8191801924766482</v>
+        <v>0.8270639006833976</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.8804718194987416</v>
+        <v>0.8837810972752124</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.9194031405344004</v>
+        <v>0.9213416670829359</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9696935519539815</v>
+        <v>0.9711772254107531</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.8924025246829247</v>
+        <v>0.8958961163769908</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9336206145029171</v>
+        <v>0.9333972205112995</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.963698925581263</v>
+        <v>0.9612482935019392</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9772557295928284</v>
+        <v>0.9794842487488349</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.8991175353032494</v>
+        <v>0.8975390131854443</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9526065230924369</v>
+        <v>0.9533338328514508</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.9580883847935195</v>
+        <v>0.9579971390318932</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.967111323339414</v>
+        <v>0.9683265757020215</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.8848590687328231</v>
+        <v>0.8855495659717423</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.9357947816910006</v>
+        <v>0.9361093143019869</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.9548164781222901</v>
+        <v>0.9556232832475063</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.9147475667243197</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.9346183830000979</v>
+        <v>0.9346183830000977</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.9334805457995969</v>
@@ -1513,7 +1513,7 @@
         <v>0.9110833696271056</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.9418231810894754</v>
+        <v>0.9418231810894752</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.9000479419930298</v>
+        <v>0.9012838247407171</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8513721177954665</v>
+        <v>0.8525087426429735</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.882595552596951</v>
+        <v>0.8845812524047912</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.9058439466688479</v>
+        <v>0.9059007467645031</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9111931406658341</v>
+        <v>0.9114823599730495</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.8844915811382008</v>
+        <v>0.8822850284442485</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.8750120136143213</v>
+        <v>0.8756692354168973</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.9300588316022053</v>
+        <v>0.9306672342539439</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.9122584453907123</v>
+        <v>0.912150559391061</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.8766259280629199</v>
+        <v>0.8779208142806295</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.889727396467245</v>
+        <v>0.8890221137339295</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.924497940471217</v>
+        <v>0.9237358631787603</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9476957338416591</v>
+        <v>0.9512958694017412</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9071194448360362</v>
+        <v>0.9086203631419526</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9391909516895637</v>
+        <v>0.9395608254104851</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9567091345935445</v>
+        <v>0.9569432871487993</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9533726102382722</v>
+        <v>0.9546901535616849</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.9328599092166997</v>
+        <v>0.9321798509931566</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9332496039359577</v>
+        <v>0.9326168786275041</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.9616543738110792</v>
+        <v>0.9617868574526086</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.9459167064248409</v>
+        <v>0.9450768069874378</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.912994903415992</v>
+        <v>0.9120120102245597</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.9296482316179177</v>
+        <v>0.9311792318520982</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.9540486358785755</v>
+        <v>0.9546716181094324</v>
       </c>
     </row>
     <row r="25">
@@ -1649,7 +1649,7 @@
         <v>0.9012054325457096</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.8675169540448435</v>
+        <v>0.8675169540448434</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.9136740652600229</v>
+        <v>0.9116213796574575</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.8641965966933958</v>
+        <v>0.8647315488284832</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.8708574793612757</v>
+        <v>0.8726801289480727</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.8080846360256728</v>
+        <v>0.8061754515309889</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.8950500923643253</v>
+        <v>0.8946337595606801</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.8909797154048499</v>
+        <v>0.8923692678791476</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.8824710439448549</v>
+        <v>0.8810860241771126</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.878800945264904</v>
+        <v>0.8787908890224432</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.9109376070694915</v>
+        <v>0.9109806039204478</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.887109907926291</v>
+        <v>0.8875243885710081</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.8850083294626253</v>
+        <v>0.8801854951435943</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.8512879958422861</v>
+        <v>0.8506338571079318</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.9555457669373429</v>
+        <v>0.9558309265310814</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.9174466857750935</v>
+        <v>0.9189055764577985</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.9184684331407462</v>
+        <v>0.9190012462889677</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.8599054831832911</v>
+        <v>0.8637353529527898</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.9427723471741161</v>
+        <v>0.941619479852453</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.9332284482430011</v>
+        <v>0.9341751556109081</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.9260225729210535</v>
+        <v>0.9270329241729639</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.9158412633885901</v>
+        <v>0.9163825953657915</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.9436215780740642</v>
+        <v>0.9435763407826798</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.9214832358002641</v>
+        <v>0.9217087911036802</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.9172117810135172</v>
+        <v>0.9165733859266111</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.88448450954499</v>
+        <v>0.8825793734882338</v>
       </c>
     </row>
     <row r="28">
@@ -1773,7 +1773,7 @@
         <v>0.910968402716848</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.9417684334446808</v>
+        <v>0.9417684334446809</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.9288503938444473</v>
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.9157524169740296</v>
+        <v>0.9146097781442035</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.8504193355095083</v>
+        <v>0.8492600605694383</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.8946395940047963</v>
+        <v>0.8949057411227108</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.9037188612420568</v>
+        <v>0.9023612898109542</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.9207509202546594</v>
+        <v>0.9200901789268838</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.8787393723478415</v>
+        <v>0.8790351840616908</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.8986812734593571</v>
+        <v>0.8993144689921403</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.9349553931952514</v>
+        <v>0.9343932869066346</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.9209697591619982</v>
+        <v>0.9211332048024798</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.8687549762144509</v>
+        <v>0.8687170778241816</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.9000973186854777</v>
+        <v>0.9012459202398545</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.9225232489840244</v>
+        <v>0.921720172625153</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.9372023559187918</v>
+        <v>0.9370137923069907</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.8767606046057091</v>
+        <v>0.8765999324802164</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.9180757514632076</v>
+        <v>0.9178322158716045</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.9250224615811765</v>
+        <v>0.9247161490936596</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.9401147220725058</v>
+        <v>0.9398167782690368</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.9019736222119958</v>
+        <v>0.9011752475768059</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.921283425139387</v>
+        <v>0.9211353620215241</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.9490147895323103</v>
+        <v>0.9482422199172758</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.9360254547302681</v>
+        <v>0.9358842475605654</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.8853815923344154</v>
+        <v>0.8858913269453247</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.9167797124740499</v>
+        <v>0.9165966014704101</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.9352617387797481</v>
+        <v>0.9341371474963417</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>174415</v>
+        <v>174131</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>199713</v>
+        <v>199884</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>200111</v>
+        <v>201489</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>270161</v>
+        <v>271569</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>183498</v>
+        <v>183023</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>202320</v>
+        <v>202289</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>201945</v>
+        <v>202644</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>295760</v>
+        <v>295142</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>363227</v>
+        <v>362707</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>409510</v>
+        <v>409949</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>410353</v>
+        <v>409190</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>571375</v>
+        <v>571457</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>187133</v>
+        <v>187035</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>222817</v>
+        <v>222223</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>222393</v>
+        <v>223255</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>289145</v>
+        <v>289637</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>196397</v>
+        <v>196041</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>226466</v>
+        <v>226476</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>223476</v>
+        <v>223685</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>303993</v>
+        <v>303919</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>381585</v>
+        <v>380191</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>443456</v>
+        <v>444233</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>440615</v>
+        <v>440003</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>591588</v>
+        <v>591196</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>349617</v>
+        <v>350249</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>312522</v>
+        <v>311603</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>331703</v>
+        <v>331493</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>460164</v>
+        <v>463880</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>385176</v>
+        <v>386569</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>368688</v>
+        <v>368552</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>364496</v>
+        <v>364345</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>497313</v>
+        <v>498781</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>744377</v>
+        <v>745428</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>689517</v>
+        <v>690510</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>703445</v>
+        <v>704148</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>969615</v>
+        <v>965625</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>376190</v>
+        <v>376036</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>345436</v>
+        <v>345674</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>350853</v>
+        <v>350765</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>497199</v>
+        <v>498083</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>409942</v>
+        <v>410310</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>397648</v>
+        <v>396976</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>381914</v>
+        <v>381842</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>515695</v>
+        <v>516709</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>779948</v>
+        <v>780565</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>732937</v>
+        <v>733041</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>729203</v>
+        <v>729136</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>1009887</v>
+        <v>1007471</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>211837</v>
+        <v>211163</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>233463</v>
+        <v>234552</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>257062</v>
+        <v>256906</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>278879</v>
+        <v>278102</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>262507</v>
+        <v>262786</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>266720</v>
+        <v>266986</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>271959</v>
+        <v>270865</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>318030</v>
+        <v>317803</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>479762</v>
+        <v>480070</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>510082</v>
+        <v>509221</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>534444</v>
+        <v>533734</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>602907</v>
+        <v>602261</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>227476</v>
+        <v>227337</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>258508</v>
+        <v>258401</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>275196</v>
+        <v>274525</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>292813</v>
+        <v>292572</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>278396</v>
+        <v>278814</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>292809</v>
+        <v>292770</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>289994</v>
+        <v>289896</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>331287</v>
+        <v>331611</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>501880</v>
+        <v>502108</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>545689</v>
+        <v>546956</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>560897</v>
+        <v>560695</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>622417</v>
+        <v>622006</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>238204</v>
+        <v>239397</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>259893</v>
+        <v>260395</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>280464</v>
+        <v>279120</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>342563</v>
+        <v>341330</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>273968</v>
+        <v>272838</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>298188</v>
+        <v>299606</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>306146</v>
+        <v>306564</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>402620</v>
+        <v>403417</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>519181</v>
+        <v>518503</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>565991</v>
+        <v>566279</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>592847</v>
+        <v>595097</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>752499</v>
+        <v>751884</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>256171</v>
+        <v>256785</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>284571</v>
+        <v>285443</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>303403</v>
+        <v>303244</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>364351</v>
+        <v>364750</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>290493</v>
+        <v>289708</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>319723</v>
+        <v>319707</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>328714</v>
+        <v>328219</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>413101</v>
+        <v>413587</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>543431</v>
+        <v>541959</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>599635</v>
+        <v>599566</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>626257</v>
+        <v>627060</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>774642</v>
+        <v>774913</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>151201</v>
+        <v>150879</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>155021</v>
+        <v>155624</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>100891</v>
+        <v>102580</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>167406</v>
+        <v>166976</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>150849</v>
+        <v>151027</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>159893</v>
+        <v>160897</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>118130</v>
+        <v>117471</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>200346</v>
+        <v>200486</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>308072</v>
+        <v>308133</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>320092</v>
+        <v>320813</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>224567</v>
+        <v>225496</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>370885</v>
+        <v>371316</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>164171</v>
+        <v>164195</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>175119</v>
+        <v>174753</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>113113</v>
+        <v>114369</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>179507</v>
+        <v>179128</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>166362</v>
+        <v>167042</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>178341</v>
+        <v>178481</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>133557</v>
+        <v>133802</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>210018</v>
+        <v>209956</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>328320</v>
+        <v>327734</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>348777</v>
+        <v>348019</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>245342</v>
+        <v>244690</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>387023</v>
+        <v>386834</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>168179</v>
+        <v>169557</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>197957</v>
+        <v>198919</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>199191</v>
+        <v>201142</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>228077</v>
+        <v>227806</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>187866</v>
+        <v>188666</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>215632</v>
+        <v>215144</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>218479</v>
+        <v>218396</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>229201</v>
+        <v>228949</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>361450</v>
+        <v>363498</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>420868</v>
+        <v>424918</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>423289</v>
+        <v>424880</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>460964</v>
+        <v>461936</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>183534</v>
+        <v>183815</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>222152</v>
+        <v>223022</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>218108</v>
+        <v>218056</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>240154</v>
+        <v>239543</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>199837</v>
+        <v>200293</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>238113</v>
+        <v>237695</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>235424</v>
+        <v>235604</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>241604</v>
+        <v>241581</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>380808</v>
+        <v>381286</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>454611</v>
+        <v>454966</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>449886</v>
+        <v>450037</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>478719</v>
+        <v>479124</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>418669</v>
+        <v>419244</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>489495</v>
+        <v>490148</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>389454</v>
+        <v>390330</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>624322</v>
+        <v>624361</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>491468</v>
+        <v>491624</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>552965</v>
+        <v>551585</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>425063</v>
+        <v>425383</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>688256</v>
+        <v>688706</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>916392</v>
+        <v>916284</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>1052062</v>
+        <v>1053616</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>824813</v>
+        <v>824159</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>1321320</v>
+        <v>1320231</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>440833</v>
+        <v>442508</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>521547</v>
+        <v>522409</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>414427</v>
+        <v>414591</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>659379</v>
+        <v>659541</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>514219</v>
+        <v>514929</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>583203</v>
+        <v>582778</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>453354</v>
+        <v>453047</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>711637</v>
+        <v>711735</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>950203</v>
+        <v>949359</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>1095709</v>
+        <v>1094529</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>861821</v>
+        <v>863240</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>1363555</v>
+        <v>1364445</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>481556</v>
+        <v>480475</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>544322</v>
+        <v>544659</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>556766</v>
+        <v>557931</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>622533</v>
+        <v>621062</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>530238</v>
+        <v>529992</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>623934</v>
+        <v>624907</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>610088</v>
+        <v>609131</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>712797</v>
+        <v>712789</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1019765</v>
+        <v>1019813</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>1179979</v>
+        <v>1180530</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>1177656</v>
+        <v>1171238</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>1346297</v>
+        <v>1345263</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>503625</v>
+        <v>503775</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>577862</v>
+        <v>578781</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>587205</v>
+        <v>587546</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>662455</v>
+        <v>665405</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>558510</v>
+        <v>557827</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>653520</v>
+        <v>654183</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>640197</v>
+        <v>640896</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>742841</v>
+        <v>743280</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1056353</v>
+        <v>1056303</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>1225700</v>
+        <v>1226000</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>1220508</v>
+        <v>1219659</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>1398797</v>
+        <v>1395784</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>2250081</v>
+        <v>2247273</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>2472611</v>
+        <v>2469241</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>2381858</v>
+        <v>2382567</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>3068171</v>
+        <v>3063562</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>2523720</v>
+        <v>2521909</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>2762301</v>
+        <v>2763230</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>2575660</v>
+        <v>2577475</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>3392419</v>
+        <v>3390380</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>4787220</v>
+        <v>4788070</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>5256837</v>
+        <v>5256608</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>4976107</v>
+        <v>4982457</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>6479323</v>
+        <v>6473682</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2302785</v>
+        <v>2302322</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>2549199</v>
+        <v>2548732</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2444254</v>
+        <v>2443605</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>3140498</v>
+        <v>3139458</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>2576795</v>
+        <v>2575979</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>2835337</v>
+        <v>2832827</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>2640439</v>
+        <v>2640014</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>3443433</v>
+        <v>3440630</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>4865480</v>
+        <v>4864746</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>5357445</v>
+        <v>5360529</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>5068334</v>
+        <v>5067322</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>6568791</v>
+        <v>6560893</v>
       </c>
     </row>
     <row r="40">
